--- a/results/new_ff_hedac/15x15/new_ff_hedac_15x15_True_2_500.xlsx
+++ b/results/new_ff_hedac/15x15/new_ff_hedac_15x15_True_2_500.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,17 +471,42 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Experiment_Time</t>
+          <t>Avg_Experiment_Time</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Std_Total_Rounds</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Expl_Cost</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Expl_Eff</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Round_Time</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Agent_Step_Time</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Experiment_Time</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Obs_Prob</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Std_Total_Rounds</t>
         </is>
       </c>
     </row>
@@ -493,28 +518,43 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>87.964</v>
+        <v>52.764</v>
       </c>
       <c r="D2" t="n">
-        <v>87.964</v>
+        <v>52.764</v>
       </c>
       <c r="E2" t="n">
-        <v>1.96349</v>
+        <v>3.26659022</v>
       </c>
       <c r="F2" t="n">
-        <v>0.13145</v>
+        <v>0.14041076</v>
       </c>
       <c r="G2" t="n">
-        <v>0.13145</v>
+        <v>0.14041076</v>
       </c>
       <c r="H2" t="n">
-        <v>11.54658</v>
+        <v>7.408108120000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.85</v>
+        <v>7.210567840132587</v>
       </c>
       <c r="J2" t="n">
-        <v>12.86727</v>
+        <v>7.210567840132587</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.4702148447944638</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.001014295328010955</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.001014295328010955</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.010627676857371</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -525,28 +565,43 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>52.764</v>
+        <v>87.964</v>
       </c>
       <c r="D3" t="n">
-        <v>52.764</v>
+        <v>87.964</v>
       </c>
       <c r="E3" t="n">
-        <v>3.26659</v>
+        <v>1.9634945</v>
       </c>
       <c r="F3" t="n">
-        <v>0.14041</v>
+        <v>0.1314479</v>
       </c>
       <c r="G3" t="n">
-        <v>0.14041</v>
+        <v>0.1314479</v>
       </c>
       <c r="H3" t="n">
-        <v>7.40811</v>
+        <v>11.54657602</v>
       </c>
       <c r="I3" t="n">
-        <v>0.15</v>
+        <v>12.88015919940448</v>
       </c>
       <c r="J3" t="n">
-        <v>7.20335</v>
+        <v>12.88015919940448</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2950596548316437</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.002674962998639079</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.002674962998639079</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.594990560069426</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="4">
@@ -563,22 +618,37 @@
         <v>57.944</v>
       </c>
       <c r="E4" t="n">
-        <v>2.99747</v>
+        <v>2.9974748</v>
       </c>
       <c r="F4" t="n">
-        <v>0.16813</v>
+        <v>0.1681331</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08407000000000001</v>
+        <v>0.0840664</v>
       </c>
       <c r="H4" t="n">
-        <v>2.43513</v>
+        <v>2.4351256</v>
       </c>
       <c r="I4" t="n">
+        <v>4.965130516117795</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9.93026103223559</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.4835505048601034</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.002038212847871009</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.00101914569905967</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.4161103568728297</v>
+      </c>
+      <c r="O4" t="n">
         <v>0.15</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.96016</v>
       </c>
     </row>
     <row r="5">
@@ -595,22 +665,37 @@
         <v>96.828</v>
       </c>
       <c r="E5" t="n">
-        <v>1.80582</v>
+        <v>1.80582288</v>
       </c>
       <c r="F5" t="n">
-        <v>0.13557</v>
+        <v>0.13557258</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06779</v>
+        <v>0.06778618</v>
       </c>
       <c r="H5" t="n">
-        <v>3.27227</v>
+        <v>3.27226822</v>
       </c>
       <c r="I5" t="n">
+        <v>9.083628162865452</v>
+      </c>
+      <c r="J5" t="n">
+        <v>18.16254861919685</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.3343094677045497</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.003567870140332543</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.001783999584258154</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.5627812265815347</v>
+      </c>
+      <c r="O5" t="n">
         <v>0.85</v>
-      </c>
-      <c r="J5" t="n">
-        <v>9.074540000000001</v>
       </c>
     </row>
     <row r="6">
@@ -621,28 +706,43 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>25.474</v>
+        <v>15.094</v>
       </c>
       <c r="D6" t="n">
-        <v>101.856</v>
+        <v>60.37</v>
       </c>
       <c r="E6" t="n">
-        <v>1.72931</v>
+        <v>2.96269876</v>
       </c>
       <c r="F6" t="n">
-        <v>0.14597</v>
+        <v>0.2033019</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03649</v>
+        <v>0.05082556000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.92498</v>
+        <v>0.7669267999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.85</v>
+        <v>3.811853151538998</v>
       </c>
       <c r="J6" t="n">
-        <v>5.29465</v>
+        <v>15.24657391127804</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.680048548493325</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.00432772769985453</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.001081876703142093</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1934447108588874</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="7">
@@ -653,28 +753,43 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>15.094</v>
+        <v>25.474</v>
       </c>
       <c r="D7" t="n">
-        <v>60.37</v>
+        <v>101.856</v>
       </c>
       <c r="E7" t="n">
-        <v>2.9627</v>
+        <v>1.72930402</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2033</v>
+        <v>0.1459651</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05083</v>
+        <v>0.03649126</v>
       </c>
       <c r="H7" t="n">
-        <v>0.76693</v>
+        <v>0.9249828</v>
       </c>
       <c r="I7" t="n">
-        <v>0.15</v>
+        <v>5.299953113567329</v>
       </c>
       <c r="J7" t="n">
-        <v>3.80804</v>
+        <v>21.18000115433886</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3515591729518842</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.006068311214166918</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.00151709451384146</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.1717424350139739</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="8">
@@ -691,22 +806,37 @@
         <v>61.308</v>
       </c>
       <c r="E8" t="n">
-        <v>2.89078</v>
+        <v>2.89078352</v>
       </c>
       <c r="F8" t="n">
-        <v>0.23834</v>
+        <v>0.23834036</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03972</v>
+        <v>0.0397233</v>
       </c>
       <c r="H8" t="n">
-        <v>0.40577</v>
+        <v>0.40577338</v>
       </c>
       <c r="I8" t="n">
+        <v>2.371016541249292</v>
+      </c>
+      <c r="J8" t="n">
+        <v>14.22609924749575</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.6120222740740202</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.005137192634769838</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0008559320939765012</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.09406166487775319</v>
+      </c>
+      <c r="O8" t="n">
         <v>0.15</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.36864</v>
       </c>
     </row>
     <row r="9">
@@ -723,22 +853,37 @@
         <v>105.278</v>
       </c>
       <c r="E9" t="n">
-        <v>1.6925</v>
+        <v>1.6924995</v>
       </c>
       <c r="F9" t="n">
-        <v>0.14908</v>
+        <v>0.14907528</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02485</v>
+        <v>0.0248458</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4335</v>
+        <v>0.43350276</v>
       </c>
       <c r="I9" t="n">
+        <v>4.221557425191369</v>
+      </c>
+      <c r="J9" t="n">
+        <v>25.19210193691666</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.3847808865477272</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.008179344807780703</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.001363166168890652</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.09329373236278393</v>
+      </c>
+      <c r="O9" t="n">
         <v>0.85</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.21733</v>
       </c>
     </row>
     <row r="10">
@@ -749,28 +894,43 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>13.63</v>
+        <v>7.564</v>
       </c>
       <c r="D10" t="n">
-        <v>108.886</v>
+        <v>60.512</v>
       </c>
       <c r="E10" t="n">
-        <v>1.6551</v>
+        <v>2.94196972</v>
       </c>
       <c r="F10" t="n">
-        <v>0.14452</v>
+        <v>0.25918398</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01806</v>
+        <v>0.03239788</v>
       </c>
       <c r="H10" t="n">
-        <v>0.24452</v>
+        <v>0.24491212</v>
       </c>
       <c r="I10" t="n">
-        <v>0.85</v>
+        <v>1.752725904467776</v>
       </c>
       <c r="J10" t="n">
-        <v>3.66567</v>
+        <v>14.02180723574221</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.6853156447516753</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.006976075143547183</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0008722030623449609</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.05633992154614036</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="11">
@@ -781,28 +941,43 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>7.564</v>
+        <v>13.63</v>
       </c>
       <c r="D11" t="n">
-        <v>60.512</v>
+        <v>108.886</v>
       </c>
       <c r="E11" t="n">
-        <v>2.94197</v>
+        <v>1.65509722</v>
       </c>
       <c r="F11" t="n">
-        <v>0.25918</v>
+        <v>0.14451536</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0324</v>
+        <v>0.01806436</v>
       </c>
       <c r="H11" t="n">
-        <v>0.24491</v>
+        <v>0.2445218</v>
       </c>
       <c r="I11" t="n">
-        <v>0.15</v>
+        <v>3.669336187393058</v>
       </c>
       <c r="J11" t="n">
-        <v>1.75097</v>
+        <v>29.17216197110074</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.4160260929616332</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.009417510173402111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.001177250877960734</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.06065823147150353</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="12">
@@ -819,22 +994,37 @@
         <v>60.28</v>
       </c>
       <c r="E12" t="n">
-        <v>2.99656</v>
+        <v>2.99656546</v>
       </c>
       <c r="F12" t="n">
-        <v>0.28674</v>
+        <v>0.2867428599999999</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02867</v>
+        <v>0.02867418</v>
       </c>
       <c r="H12" t="n">
-        <v>0.17271</v>
+        <v>0.17271412</v>
       </c>
       <c r="I12" t="n">
+        <v>1.587531578591762</v>
+      </c>
+      <c r="J12" t="n">
+        <v>15.87531578591762</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.775573309138785</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.00829669519282499</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.0008295846847056643</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.04530979411906243</v>
+      </c>
+      <c r="O12" t="n">
         <v>0.15</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.58594</v>
       </c>
     </row>
     <row r="13">
@@ -851,22 +1041,37 @@
         <v>109.168</v>
       </c>
       <c r="E13" t="n">
-        <v>1.66626</v>
+        <v>1.66625822</v>
       </c>
       <c r="F13" t="n">
-        <v>0.14259</v>
+        <v>0.1425948</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01426</v>
+        <v>0.0142594</v>
       </c>
       <c r="H13" t="n">
-        <v>0.15489</v>
+        <v>0.15489382</v>
       </c>
       <c r="I13" t="n">
+        <v>3.137603082961965</v>
+      </c>
+      <c r="J13" t="n">
+        <v>31.09974540617105</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.4459830293074974</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.009143890946598532</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.000914416510737979</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.04080276215167317</v>
+      </c>
+      <c r="O13" t="n">
         <v>0.85</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.13446</v>
       </c>
     </row>
   </sheetData>

--- a/results/new_ff_hedac/15x15/new_ff_hedac_15x15_True_2_500.xlsx
+++ b/results/new_ff_hedac/15x15/new_ff_hedac_15x15_True_2_500.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/results/new_ff_hedac/15x15/new_ff_hedac_15x15_True_2_500.xlsx
+++ b/results/new_ff_hedac/15x15/new_ff_hedac_15x15_True_2_500.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,10 +530,10 @@
         <v>0.14041076</v>
       </c>
       <c r="G2" t="n">
-        <v>0.14041076</v>
+        <v>7.40809352</v>
       </c>
       <c r="H2" t="n">
-        <v>7.408108120000001</v>
+        <v>398.14300002</v>
       </c>
       <c r="I2" t="n">
         <v>7.210567840132587</v>
@@ -548,10 +548,10 @@
         <v>0.001014295328010955</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001014295328010955</v>
+        <v>1.010627121043755</v>
       </c>
       <c r="N2" t="n">
-        <v>1.010627676857371</v>
+        <v>105.4411928558437</v>
       </c>
       <c r="O2" t="n">
         <v>0.15</v>
@@ -577,10 +577,10 @@
         <v>0.1314479</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1314479</v>
+        <v>11.54658394</v>
       </c>
       <c r="H3" t="n">
-        <v>11.54657602</v>
+        <v>1036.00402306</v>
       </c>
       <c r="I3" t="n">
         <v>12.88015919940448</v>
@@ -595,10 +595,10 @@
         <v>0.002674962998639079</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002674962998639079</v>
+        <v>1.594986336144876</v>
       </c>
       <c r="N3" t="n">
-        <v>1.594990560069426</v>
+        <v>293.9491129333546</v>
       </c>
       <c r="O3" t="n">
         <v>0.85</v>
@@ -624,10 +624,10 @@
         <v>0.1681331</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0840664</v>
+        <v>2.43512314</v>
       </c>
       <c r="H4" t="n">
-        <v>2.4351256</v>
+        <v>72.60676776</v>
       </c>
       <c r="I4" t="n">
         <v>4.965130516117795</v>
@@ -642,10 +642,10 @@
         <v>0.002038212847871009</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00101914569905967</v>
+        <v>0.4161116558957283</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4161103568728297</v>
+        <v>25.90025464032825</v>
       </c>
       <c r="O4" t="n">
         <v>0.15</v>
@@ -671,10 +671,10 @@
         <v>0.13557258</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06778618</v>
+        <v>3.2722633</v>
       </c>
       <c r="H5" t="n">
-        <v>3.27226822</v>
+        <v>163.49937598</v>
       </c>
       <c r="I5" t="n">
         <v>9.083628162865452</v>
@@ -689,10 +689,10 @@
         <v>0.003567870140332543</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001783999584258154</v>
+        <v>0.562781947459656</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5627812265815347</v>
+        <v>60.38638085824623</v>
       </c>
       <c r="O5" t="n">
         <v>0.85</v>
@@ -718,10 +718,10 @@
         <v>0.2033019</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05082556000000001</v>
+        <v>0.7669273600000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7669267999999999</v>
+        <v>12.3088315</v>
       </c>
       <c r="I6" t="n">
         <v>3.811853151538998</v>
@@ -736,10 +736,10 @@
         <v>0.00432772769985453</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001081876703142093</v>
+        <v>0.1934415784073938</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1934447108588874</v>
+        <v>6.745546862543131</v>
       </c>
       <c r="O6" t="n">
         <v>0.15</v>
@@ -765,10 +765,10 @@
         <v>0.1459651</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03649126</v>
+        <v>0.92498132</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9249828</v>
+        <v>24.45588658</v>
       </c>
       <c r="I7" t="n">
         <v>5.299953113567329</v>
@@ -783,10 +783,10 @@
         <v>0.006068311214166918</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00151709451384146</v>
+        <v>0.171736857617654</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1717424350139739</v>
+        <v>9.945613175554639</v>
       </c>
       <c r="O7" t="n">
         <v>0.85</v>
@@ -812,10 +812,10 @@
         <v>0.23834036</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0397233</v>
+        <v>0.40577266</v>
       </c>
       <c r="H8" t="n">
-        <v>0.40577338</v>
+        <v>4.36777126</v>
       </c>
       <c r="I8" t="n">
         <v>2.371016541249292</v>
@@ -830,10 +830,10 @@
         <v>0.005137192634769838</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0008559320939765012</v>
+        <v>0.09406143466749706</v>
       </c>
       <c r="N8" t="n">
-        <v>0.09406166487775319</v>
+        <v>2.226559821479375</v>
       </c>
       <c r="O8" t="n">
         <v>0.15</v>
@@ -859,10 +859,10 @@
         <v>0.14907528</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0248458</v>
+        <v>0.43350224</v>
       </c>
       <c r="H9" t="n">
-        <v>0.43350276</v>
+        <v>7.997219659999999</v>
       </c>
       <c r="I9" t="n">
         <v>4.221557425191369</v>
@@ -877,10 +877,10 @@
         <v>0.008179344807780703</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001363166168890652</v>
+        <v>0.09329857909907424</v>
       </c>
       <c r="N9" t="n">
-        <v>0.09329373236278393</v>
+        <v>3.844196882024126</v>
       </c>
       <c r="O9" t="n">
         <v>0.85</v>
@@ -906,10 +906,10 @@
         <v>0.25918398</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03239788</v>
+        <v>0.2449111</v>
       </c>
       <c r="H10" t="n">
-        <v>0.24491212</v>
+        <v>1.95037218</v>
       </c>
       <c r="I10" t="n">
         <v>1.752725904467776</v>
@@ -924,10 +924,10 @@
         <v>0.006976075143547183</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0008722030623449609</v>
+        <v>0.05633855779818613</v>
       </c>
       <c r="N10" t="n">
-        <v>0.05633992154614036</v>
+        <v>0.939673584010758</v>
       </c>
       <c r="O10" t="n">
         <v>0.15</v>
@@ -953,10 +953,10 @@
         <v>0.14451536</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01806436</v>
+        <v>0.24452178</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2445218</v>
+        <v>3.54891342</v>
       </c>
       <c r="I11" t="n">
         <v>3.669336187393058</v>
@@ -971,10 +971,10 @@
         <v>0.009417510173402111</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001177250877960734</v>
+        <v>0.06066215385272521</v>
       </c>
       <c r="N11" t="n">
-        <v>0.06065823147150353</v>
+        <v>2.040596071443755</v>
       </c>
       <c r="O11" t="n">
         <v>0.85</v>
@@ -1000,10 +1000,10 @@
         <v>0.2867428599999999</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02867418</v>
+        <v>0.17271368</v>
       </c>
       <c r="H12" t="n">
-        <v>0.17271412</v>
+        <v>1.11245764</v>
       </c>
       <c r="I12" t="n">
         <v>1.587531578591762</v>
@@ -1018,10 +1018,10 @@
         <v>0.00829669519282499</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0008295846847056643</v>
+        <v>0.04531058831315445</v>
       </c>
       <c r="N12" t="n">
-        <v>0.04530979411906243</v>
+        <v>0.6068169002690471</v>
       </c>
       <c r="O12" t="n">
         <v>0.15</v>
@@ -1047,10 +1047,10 @@
         <v>0.1425948</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0142594</v>
+        <v>0.15489318</v>
       </c>
       <c r="H13" t="n">
-        <v>0.15489382</v>
+        <v>1.81991824</v>
       </c>
       <c r="I13" t="n">
         <v>3.137603082961965</v>
@@ -1065,10 +1065,10 @@
         <v>0.009143890946598532</v>
       </c>
       <c r="M13" t="n">
-        <v>0.000914416510737979</v>
+        <v>0.0408042252282844</v>
       </c>
       <c r="N13" t="n">
-        <v>0.04080276215167317</v>
+        <v>1.088608759030616</v>
       </c>
       <c r="O13" t="n">
         <v>0.85</v>
